--- a/data_process/xlsx/jongno_A3.xlsx
+++ b/data_process/xlsx/jongno_A3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,21 @@
           <t>url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>create_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>몽롱 종각점</t>
+          <t>야젠 1호점</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,34 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>545</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 종로구 삼일대로17길 42-1 1~4층 몽롱</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1479-6024</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1733475379/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%88%A0%EC%A7%91&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142359050</t>
+          <t>https://pcmap.place.naver.com/restaurant/37633182/photo?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%88%A0%EC%A7%91&amp;from=map&amp;fromPanelNum=2&amp;x=127.00020726577195&amp;y=37.57155902739453&amp;timestamp=202309071759</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>야젠 1호점</t>
+          <t>몽롱 종각점</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,22 +535,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>511</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 종로구 종로31길 10</t>
+          <t>서울 종로구 삼일대로17길 42-1 1~4층 몽롱</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0507-1400-1485</t>
+          <t>0507-1479-6024</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37633182/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%88%A0%EC%A7%91&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142362913</t>
+          <t>https://pcmap.place.naver.com/restaurant/1733475379/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%88%A0%EC%A7%91&amp;from=map&amp;fromPanelNum=2&amp;x=126.98507989999977&amp;y=37.56936689999982&amp;timestamp=202309071759</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -562,7 +577,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -577,7 +592,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1106172226/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142365688</t>
+          <t>https://pcmap.place.naver.com/restaurant/1106172226/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9919262&amp;y=37.5728242&amp;timestamp=202309071759</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -614,24 +634,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1141746485/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142368337</t>
+          <t>https://pcmap.place.naver.com/restaurant/1141746485/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.990142195643&amp;y=37.56558459302949&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04판</t>
+          <t>만선호프 노가리체인본점</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -641,54 +666,64 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 대명1길 21</t>
+          <t>서울 중구 을지로13길 19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1318-1711</t>
+          <t>02-2274-1040</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1409207151/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142369775</t>
+          <t>https://pcmap.place.naver.com/restaurant/13492518/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.991800100005&amp;y=37.56728419999601&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>만선호프 노가리체인본점</t>
+          <t>04판</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>577</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 중구 을지로13길 19</t>
+          <t>서울 종로구 대명1길 21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02-2274-1040</t>
+          <t>0507-1318-1711</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/13492518/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142370920</t>
+          <t>https://pcmap.place.naver.com/restaurant/1409207151/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00091750000001&amp;y=37.58272760091219&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -705,12 +740,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>860</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -725,7 +760,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1669566053/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142372374</t>
+          <t>https://pcmap.place.naver.com/restaurant/1669566053/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0004499&amp;y=37.5830328&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -742,12 +782,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>878</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -762,56 +802,66 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1622164906/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142373562</t>
+          <t>https://pcmap.place.naver.com/restaurant/1622164906/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9846629&amp;y=37.56882819999999&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>서울집시</t>
+          <t>하구</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>548</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 서순라길 107</t>
+          <t>서울 종로구 돈화문로11나길 26-18 하구</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02-743-1212</t>
+          <t>0507-1342-5767</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1311007811/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142374644</t>
+          <t>https://pcmap.place.naver.com/restaurant/1054946367/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9907127&amp;y=37.573743&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>하구</t>
+          <t>서울집시</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -821,22 +871,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11나길 26-18 하구</t>
+          <t>서울 종로구 서순라길 107</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1342-5767</t>
+          <t>02-743-1212</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1054946367/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142375648</t>
+          <t>https://pcmap.place.naver.com/restaurant/1311007811/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9915567&amp;y=37.5750389&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -858,7 +913,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>788</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -873,7 +928,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1883490486/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142376697</t>
+          <t>https://pcmap.place.naver.com/restaurant/1883490486/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.991661002326&amp;y=37.57276728859789&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -890,12 +950,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -910,88 +970,103 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1566105397/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142378067</t>
+          <t>https://pcmap.place.naver.com/restaurant/1566105397/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99151991934&amp;y=37.56719230103079&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>행아웃</t>
+          <t>아담집</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>294</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11다길 29</t>
+          <t>서울 종로구 돈화문로11나길 22 서울 종로구 돈화문로11나길 26-3</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1304-3624</t>
+          <t>0507-1424-2358</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1651691942/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142381346</t>
+          <t>https://pcmap.place.naver.com/restaurant/1504364153/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9905499&amp;y=37.5737224&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>아담집</t>
+          <t>JH텍사스바</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11나길 22 서울 종로구 돈화문로11나길 26-3</t>
+          <t>서울 중구 무교로 32 효령빌딩</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1424-2358</t>
+          <t>0507-1378-0805</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1504364153/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142382645</t>
+          <t>https://pcmap.place.naver.com/restaurant/38274835/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97950800000301&amp;y=37.56881200090899&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>JH텍사스바</t>
+          <t>행아웃</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1001,34 +1076,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>829</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 중구 무교로 32 효령빌딩</t>
+          <t>서울 종로구 돈화문로11다길 29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1378-0805</t>
+          <t>0507-1304-3624</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/38274835/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142383551</t>
+          <t>https://pcmap.place.naver.com/restaurant/1651691942/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9903266&amp;y=37.5735584&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>술비</t>
+          <t>주마등</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,76 +1118,86 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로14길 17 1층 술비</t>
+          <t>서울 중구 충무로5길 23 1층, 2층</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1369-7415</t>
+          <t>0507-1362-6755</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1123934065/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142384465</t>
+          <t>https://pcmap.place.naver.com/restaurant/1003545719/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9914005&amp;y=37.56534860000001&amp;timestamp=202309071800</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>독일주택</t>
+          <t>술비</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>245</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>서울 종로구 대명1길 16-4</t>
+          <t>서울 종로구 대학로14길 17 1층 술비</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>02-742-1933</t>
+          <t>0507-1369-7415</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/35457552/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142385809</t>
+          <t>https://pcmap.place.naver.com/restaurant/1123934065/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0024874&amp;y=37.5841382&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>주마등</t>
+          <t>독일주택</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1117,22 +1207,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 중구 충무로5길 23 1층, 2층</t>
+          <t>서울 종로구 대명1길 16-4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0507-1362-6755</t>
+          <t>02-742-1933</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1003545719/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142387272</t>
+          <t>https://pcmap.place.naver.com/restaurant/35457552/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0005366&amp;y=37.5829872&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1249,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>511</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1169,7 +1264,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1733475379/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142388429</t>
+          <t>https://pcmap.place.naver.com/restaurant/1733475379/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98507989999977&amp;y=37.56936689999982&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1291,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>952</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1206,199 +1306,229 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1098147736/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142391052</t>
+          <t>https://pcmap.place.naver.com/restaurant/1098147736/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.990987&amp;y=37.565598&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>와</t>
+          <t>달빛마루</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>819</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동3길 8</t>
+          <t>서울 종로구 대학로11길 24-1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1403-7207</t>
+          <t>0507-1418-6787</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37349491/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142392629</t>
+          <t>https://pcmap.place.naver.com/restaurant/20724809/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00025859999957&amp;y=37.58230160000031&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>달빛마루</t>
+          <t>을지맥옥</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로11길 24-1</t>
+          <t>서울 중구 수표로 48-16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1418-6787</t>
+          <t>02-2272-1825</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/20724809/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142393859</t>
+          <t>https://pcmap.place.naver.com/restaurant/1172310688/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9907191&amp;y=37.5654674&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>웜비어위캔드</t>
+          <t>이자카야나무 종각점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 중구 청계천로 184 2층</t>
+          <t>서울 종로구 종로10길 16 2,3층</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1488-0392</t>
+          <t>02-722-6787</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1489017764/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%88%A0%EC%A7%91&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142394824</t>
+          <t>https://pcmap.place.naver.com/restaurant/1193914144/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%88%A0%EC%A7%91&amp;from=map&amp;fromPanelNum=2&amp;x=126.98436058697501&amp;y=37.569327291402594&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>해물점1978</t>
+          <t>JH텍사스바</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 종로구 청계천로 63-1 1층</t>
+          <t>서울 중구 무교로 32 효령빌딩</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1349-1978</t>
+          <t>0507-1378-0805</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1622164906/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%88%A0%EC%A7%91&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142395791</t>
+          <t>https://pcmap.place.naver.com/restaurant/38274835/home?entry=bmp&amp;n_ad_group_type=10&amp;n_query=%EC%A2%85%EB%A1%9C%EC%88%A0%EC%A7%91&amp;from=map&amp;fromPanelNum=2&amp;x=126.97950800000301&amp;y=37.56881200090899&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>서울바당</t>
+          <t>와</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>278</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 19-5 지하1층</t>
+          <t>서울 종로구 인사동3길 8</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1339-3975</t>
+          <t>0507-1403-7207</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1793838609/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142397455</t>
+          <t>https://pcmap.place.naver.com/restaurant/37349491/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98626748330659&amp;y=37.57195559526539&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>꽃피는산골</t>
+          <t>달막달막</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1408,298 +1538,338 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>381</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 종로구 종로11길 17</t>
+          <t>서울 종로구 인사동16길 11-1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1412-7963</t>
+          <t>02-739-2220</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/11723442/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142398678</t>
+          <t>https://pcmap.place.naver.com/restaurant/1967078079/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.984188&amp;y=37.5752281&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>15번출구</t>
+          <t>야젠 1호점</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>545</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로20길 34 1층</t>
+          <t>서울 종로구 종로31길 10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0507-1329-8316</t>
+          <t>0507-1400-1485</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/396944356/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142400224</t>
+          <t>https://pcmap.place.naver.com/restaurant/37633182/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00020726577195&amp;y=37.57155902739453&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>을지맥옥</t>
+          <t>꽃피는산골</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>671</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>서울 중구 수표로 48-16</t>
+          <t>서울 종로구 종로11길 17</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>02-2272-1825</t>
+          <t>0507-1412-7963</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1172310688/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142401573</t>
+          <t>https://pcmap.place.naver.com/restaurant/11723442/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98558700000038&amp;y=37.57112500000024&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>야젠 1호점</t>
+          <t>떡상</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>261</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 종로구 종로31길 10</t>
+          <t>서울 종로구 인사동14길 43 1층 떡상</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0507-1400-1485</t>
+          <t>0507-1431-7734</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37633182/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142402985</t>
+          <t>https://pcmap.place.naver.com/restaurant/1614154375/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98480650078157&amp;y=37.57502434540329&amp;timestamp=202309071801</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>비스라운지</t>
+          <t>루나소사이어티</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>279</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 135-8 단독건물 비스라운지</t>
+          <t>서울 종로구 삼일대로32길 49-5 1층</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1414-1176</t>
+          <t>0507-1371-0190</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1326247511/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142404294</t>
+          <t>https://pcmap.place.naver.com/restaurant/1012981668/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9896361&amp;y=37.5757719&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>루나소사이어티</t>
+          <t>비스라운지</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>526</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 종로구 삼일대로32길 49-5 1층</t>
+          <t>서울 종로구 대학로 135-8 단독건물 비스라운지</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0507-1371-0190</t>
+          <t>0507-1414-1176</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1012981668/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142407032</t>
+          <t>https://pcmap.place.naver.com/restaurant/1326247511/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0011344&amp;y=37.5832929&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>시미시미</t>
+          <t>15번출구</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>835</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 종로구 삼일대로30길 49</t>
+          <t>서울 종로구 수표로20길 34 1층</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>010-9327-8138</t>
+          <t>0507-1329-8316</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/48533554/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142408444</t>
+          <t>https://pcmap.place.naver.com/restaurant/396944356/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.991454&amp;y=37.569845&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>옥상</t>
+          <t>서울바당</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>297</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11길 6</t>
+          <t>서울 종로구 대명길 19-5 지하1층</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0507-1478-5859</t>
+          <t>0507-1339-3975</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1596260958/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142409367</t>
+          <t>https://pcmap.place.naver.com/restaurant/1793838609/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0006897&amp;y=37.58314530091221&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>떡상</t>
+          <t>옥상</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1709,59 +1879,69 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>760</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동14길 43 1층 떡상</t>
+          <t>서울 종로구 돈화문로11길 6</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0507-1431-7734</t>
+          <t>0507-1478-5859</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1614154375/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142410763</t>
+          <t>https://pcmap.place.naver.com/restaurant/1596260958/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9911237999995&amp;y=37.572755600000036&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>달막달막</t>
+          <t>청계천 휴</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동16길 11-1</t>
+          <t>서울 종로구 청계천로 71 청계천 휴</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>02-739-2220</t>
+          <t>02-736-7788</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1967078079/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142411731</t>
+          <t>https://pcmap.place.naver.com/restaurant/1451704655/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98562260590938&amp;y=37.5686938199949&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -1778,12 +1958,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>570</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1798,125 +1978,145 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1798532855/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142413402</t>
+          <t>https://pcmap.place.naver.com/restaurant/1798532855/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99146285308517&amp;y=37.571629758434845&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>술라</t>
+          <t>법원</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>645</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울 종로구 서순라길 57 1층 2층</t>
+          <t>서울 종로구 창덕궁1길 33</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0507-1302-6717</t>
+          <t>02-745-1933</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1247716788/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142414522</t>
+          <t>https://pcmap.place.naver.com/restaurant/1348865017/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9873796&amp;y=37.5792588&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>법원</t>
+          <t>술패도니</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>990</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>서울 종로구 창덕궁1길 33</t>
+          <t>서울 종로구 종로10길 13 2층</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>02-745-1933</t>
+          <t>0507-1383-6599</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1348865017/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142415821</t>
+          <t>https://pcmap.place.naver.com/restaurant/677534102/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98456163480448&amp;y=37.56949055712217&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>술패도니</t>
+          <t>술라</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>362</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>서울 종로구 종로10길 13 2층</t>
+          <t>서울 종로구 서순라길 57 1층 2층</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>02-733-6599</t>
+          <t>0507-1302-6717</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/677534102/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142416650</t>
+          <t>https://pcmap.place.naver.com/restaurant/1247716788/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99295269471386&amp;y=37.573069308938514&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>맥썸 대학로점</t>
+          <t>Projec D</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1926,34 +2126,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 9 2층</t>
+          <t>서울 중구 퇴계로 343-1 동양빌딩</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02-766-3888</t>
+          <t>0507-1405-9706</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1946473141/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142417807</t>
+          <t>https://pcmap.place.naver.com/restaurant/36073217/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00979430033&amp;y=37.5647741003375&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>청계천 휴</t>
+          <t>맥썸 대학로점</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1968,22 +2173,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>693</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>서울 종로구 청계천로 71 청계천 휴</t>
+          <t>서울 종로구 대명길 9 2층</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>02-736-7788</t>
+          <t>02-766-3888</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1451704655/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142419194</t>
+          <t>https://pcmap.place.naver.com/restaurant/1946473141/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00093437767372&amp;y=37.58342936357509&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -2000,12 +2210,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>353</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2020,51 +2230,61 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1534553623/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142420234</t>
+          <t>https://pcmap.place.naver.com/restaurant/1534553623/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9864583&amp;y=37.5696091&amp;timestamp=202309071802</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Projec D</t>
+          <t>헝그리서울</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>215</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>서울 중구 퇴계로 343-1 동양빌딩</t>
+          <t>서울 종로구 인사동16길 8-3</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0507-1405-9706</t>
+          <t>0507-1304-9285</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/36073217/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142421344</t>
+          <t>https://pcmap.place.naver.com/restaurant/1694153423/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9844198&amp;y=37.5752009&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>헝그리서울</t>
+          <t>코너숍</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2074,27 +2294,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>354</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동16길 8-3</t>
+          <t>서울 중구 을지로12길 15 1층</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0507-1304-9285</t>
+          <t>0507-1420-1291</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1694153423/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142423088</t>
+          <t>https://pcmap.place.naver.com/restaurant/1152633370/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9911532&amp;y=37.5655723&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2341,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>724</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2131,14 +2356,19 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/21074680/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142424095</t>
+          <t>https://pcmap.place.naver.com/restaurant/21074680/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99993565222684&amp;y=37.584352185421835&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>코너숍</t>
+          <t>푸른별주막</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2148,219 +2378,249 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>312</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>서울 중구 을지로12길 15 1층</t>
+          <t>서울 종로구 인사동16길 17-1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0507-1420-1291</t>
+          <t>0507-1336-3095</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1152633370/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142426876</t>
+          <t>https://pcmap.place.naver.com/restaurant/13567052/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9840183&amp;y=37.5755332&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>인사동노가리</t>
+          <t>GRIB</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>476</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동3길 14 1층 인사동노가리</t>
+          <t>서울 종로구 계동길 5 1층 106호</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>070-8958-0930</t>
+          <t>070-4141-5511</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/21849004/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142429454</t>
+          <t>https://pcmap.place.naver.com/restaurant/1804738944/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.986491004136&amp;y=37.57729155113109&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>이태리양조장 종각역점</t>
+          <t>토라 대학로점</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>270</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>서울 종로구 삼일대로17길 50 1층</t>
+          <t>서울 종로구 대명1길 4</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0507-1303-2760</t>
+          <t>0507-1340-7779</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1708196505/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142430943</t>
+          <t>https://pcmap.place.naver.com/restaurant/1293675280/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0008236&amp;y=37.5832904&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>빅파이브 종로점</t>
+          <t>현제</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>183</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로 115 2, 3층</t>
+          <t>서울 종로구 청계천로 67 종로 1번가 오피스텔 105-1호</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1370-0939</t>
+          <t>0507-1457-3352</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/608052515/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142432189</t>
+          <t>https://pcmap.place.naver.com/restaurant/1265312395/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98525157282737&amp;y=37.56874849704733&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>푸른별주막</t>
+          <t>고씨네고추장찌개</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동16길 17-1</t>
+          <t>서울 중구 수표로 26 1층</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0507-1336-3095</t>
+          <t>010-7111-4328</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/13567052/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142433832</t>
+          <t>https://pcmap.place.naver.com/restaurant/1865094857/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.990374732524&amp;y=37.56352553097229&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>영지인 종각점</t>
+          <t>이태리양조장 종각역점</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>226</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>서울 종로구 청계천로 57 1층</t>
+          <t>서울 종로구 삼일대로17길 50 1층</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0507-1356-0903</t>
+          <t>0507-1303-2760</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1074532446/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142435045</t>
+          <t>https://pcmap.place.naver.com/restaurant/1708196505/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98479072417122&amp;y=37.56925362142487&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>명동골뱅이</t>
+          <t>대림호프</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2370,101 +2630,116 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>217</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>서울 중구 충무로9길 14</t>
+          <t>서울 중구 창경궁로5길 11</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0507-1434-7703</t>
+          <t>02-2275-2881</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/33879683/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142436032</t>
+          <t>https://pcmap.place.naver.com/restaurant/1109656885/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9973635&amp;y=37.5671247&amp;timestamp=202309071803</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>토라 대학로점</t>
+          <t>인사동노가리</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>306</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>서울 종로구 대명1길 4</t>
+          <t>서울 종로구 인사동3길 14 1층 인사동노가리</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0507-1340-7779</t>
+          <t>070-8958-0930</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1293675280/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142437500</t>
+          <t>https://pcmap.place.naver.com/restaurant/21849004/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9860146&amp;y=37.5718453&amp;timestamp=202309071804</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>대림호프</t>
+          <t>빅파이브 종로점</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>479</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>서울 중구 창경궁로5길 11</t>
+          <t>서울 종로구 수표로 115 2, 3층</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>02-2275-2881</t>
+          <t>0507-1370-0939</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1109656885/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142438625</t>
+          <t>https://pcmap.place.naver.com/restaurant/608052515/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98902003210999&amp;y=37.5716637623817&amp;timestamp=202309071804</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2023-09-07 17:59:08</t>
         </is>
       </c>
     </row>
